--- a/Python Algorithms/Test/ER-Critical.xlsx
+++ b/Python Algorithms/Test/ER-Critical.xlsx
@@ -420,22 +420,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>4.438692585754373E-18</v>
+        <v>0.008118172954500277</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2">
-        <v>0.9999999999999998</v>
+        <v>0.856825922154505</v>
       </c>
       <c r="F2">
-        <v>0.0102226734161377</v>
+        <v>0.0009081363677978516</v>
       </c>
       <c r="G2">
-        <v>1.224987518739672</v>
+        <v>1.399548801684356</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -443,22 +443,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3146</v>
+        <v>4722</v>
       </c>
       <c r="C3">
-        <v>0.01464590824493311</v>
+        <v>0.05103141248772665</v>
       </c>
       <c r="D3">
         <v>0.1</v>
       </c>
       <c r="E3">
-        <v>0.09992201604591318</v>
+        <v>0.09999756533481143</v>
       </c>
       <c r="F3">
-        <v>0.5705289840698242</v>
+        <v>2.449036121368408</v>
       </c>
       <c r="G3">
-        <v>0.3599732567659149</v>
+        <v>0.7429462184840422</v>
       </c>
     </row>
   </sheetData>
